--- a/data/trans_orig/P15A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF69C5C-32E6-4B6C-A474-D12C62C9DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E3E49A-0707-4ACB-8FE9-1D50236BF70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A8673B-7E52-4DA3-A27F-52276124F6C9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{729A0FCA-5F87-4A5E-8349-14E872EFDBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="444">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
   </si>
@@ -77,1189 +77,1219 @@
     <t>48,52%</t>
   </si>
   <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
   </si>
   <si>
     <t>62,53%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>37,47%</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>54,94%</t>
   </si>
   <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>30,07%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
+    <t>19,91%</t>
   </si>
   <si>
     <t>35,2%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
   </si>
   <si>
     <t>32,91%</t>
@@ -1268,82 +1298,79 @@
     <t>25,56%</t>
   </si>
   <si>
+    <t>40,97%</t>
+  </si>
+  <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>80,09%</t>
   </si>
   <si>
     <t>64,8%</t>
   </si>
   <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>67,09%</t>
   </si>
   <si>
+    <t>59,03%</t>
+  </si>
+  <si>
     <t>74,44%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
+    <t>30,5%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
+    <t>69,5%</t>
   </si>
   <si>
     <t>56,97%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7027BA-BB10-4659-8F93-1FCAFECA990E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEC1325-4C56-4470-8FD6-1C4386D20ED1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2818,7 +2845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2ED2D2-0FC5-4D51-8E89-9FC08857B7EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF218752-5BB4-4AD7-9322-C50A984BF809}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3592,13 +3619,13 @@
         <v>58557</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3640,13 @@
         <v>54597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3628,13 +3655,13 @@
         <v>48324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -3643,13 +3670,13 @@
         <v>102921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3744,13 @@
         <v>98315</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -3732,13 +3759,13 @@
         <v>98331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>184</v>
@@ -3747,13 +3774,13 @@
         <v>196646</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3795,13 @@
         <v>189598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>151</v>
@@ -3783,13 +3810,13 @@
         <v>159141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>333</v>
@@ -3798,13 +3825,13 @@
         <v>348739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,7 +3908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A0E1CB-A409-4D01-8221-553D11A8BA16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E3FFC8-3520-4848-A149-ABC828D9E2C7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4032,13 @@
         <v>2664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4023,10 +4050,10 @@
         <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4035,13 +4062,13 @@
         <v>2664</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4083,13 @@
         <v>2857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4074,7 +4101,7 @@
         <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4086,13 +4113,13 @@
         <v>9126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4187,13 @@
         <v>13566</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -4175,13 +4202,13 @@
         <v>18852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4190,13 +4217,13 @@
         <v>32418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4238,13 @@
         <v>22520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -4226,13 +4253,13 @@
         <v>23555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -4241,13 +4268,13 @@
         <v>46075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4342,13 @@
         <v>32929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -4330,13 +4357,13 @@
         <v>23970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -4345,13 +4372,13 @@
         <v>56899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4393,13 @@
         <v>27546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4381,13 +4408,13 @@
         <v>24629</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -4396,13 +4423,13 @@
         <v>52175</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4497,13 @@
         <v>12265</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4485,13 +4512,13 @@
         <v>10550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4500,13 +4527,13 @@
         <v>22815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4548,13 @@
         <v>24401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4536,13 +4563,13 @@
         <v>21011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -4551,13 +4578,13 @@
         <v>45412</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4652,13 @@
         <v>27687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4640,13 +4667,13 @@
         <v>34138</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -4655,13 +4682,13 @@
         <v>61825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4703,13 @@
         <v>33199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4691,13 +4718,13 @@
         <v>28480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -4706,13 +4733,13 @@
         <v>61679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4807,13 @@
         <v>89111</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -4795,13 +4822,13 @@
         <v>87509</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -4810,13 +4837,13 @@
         <v>176621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4858,13 @@
         <v>110523</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -4846,13 +4873,13 @@
         <v>103944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -4861,13 +4888,13 @@
         <v>214466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1384E2AE-7AAE-4CD7-ACD6-ADD8D2F1A1C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F80C0B3-E06B-420D-B326-25E47CBA0503}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4988,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5095,13 @@
         <v>3649</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5083,13 +5110,13 @@
         <v>2437</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5098,13 +5125,13 @@
         <v>6086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5146,13 @@
         <v>2367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5134,13 +5161,13 @@
         <v>5143</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5149,13 +5176,13 @@
         <v>7510</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5250,13 @@
         <v>13741</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5238,13 +5265,13 @@
         <v>18076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5253,13 +5280,13 @@
         <v>31817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5301,13 @@
         <v>26861</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -5289,13 +5316,13 @@
         <v>20376</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -5304,13 +5331,13 @@
         <v>47238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5405,13 @@
         <v>28620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5393,13 +5420,13 @@
         <v>30463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -5408,13 +5435,13 @@
         <v>59083</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5456,13 @@
         <v>39092</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -5444,13 +5471,13 @@
         <v>32517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>389</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -5459,13 +5486,13 @@
         <v>71609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5560,13 @@
         <v>12602</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5548,13 +5575,13 @@
         <v>22499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5563,13 +5590,13 @@
         <v>35101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5611,13 @@
         <v>17218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>120</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -5599,13 +5626,13 @@
         <v>25577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>254</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -5614,13 +5641,13 @@
         <v>42795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5715,13 @@
         <v>18286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -5703,13 +5730,13 @@
         <v>26470</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -5718,13 +5745,13 @@
         <v>44756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5766,13 @@
         <v>42526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -5754,13 +5781,13 @@
         <v>48718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -5769,13 +5796,13 @@
         <v>91244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5870,13 @@
         <v>76897</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -5858,13 +5885,13 @@
         <v>99945</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>237</v>
@@ -5873,13 +5900,13 @@
         <v>176842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5921,13 @@
         <v>128065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>201</v>
@@ -5909,13 +5936,13 @@
         <v>132332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>334</v>
@@ -5924,13 +5951,13 @@
         <v>260397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E3E49A-0707-4ACB-8FE9-1D50236BF70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D82939A-2B47-4789-B3D1-DC8D9D675778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{729A0FCA-5F87-4A5E-8349-14E872EFDBC8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB19120A-DB46-4670-ABB6-655872B4BE60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="436">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>48,52%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>43,94%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1053 +107,1041 @@
     <t>51,48%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>56,06%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>46,41%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>40,99%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>62,13%</t>
   </si>
   <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
   <si>
     <t>53,59%</t>
   </si>
   <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>50,78%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>51,33%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
   </si>
   <si>
     <t>51,01%</t>
   </si>
   <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
   </si>
   <si>
     <t>49,22%</t>
   </si>
   <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
   </si>
   <si>
     <t>48,67%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
   </si>
   <si>
     <t>48,99%</t>
   </si>
   <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
   </si>
   <si>
     <t>69,03%</t>
   </si>
   <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>59,41%</t>
   </si>
   <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 5,56%)</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
     <t>47,43%</t>
   </si>
   <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>47,01%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
     <t>41,51%</t>
   </si>
   <si>
@@ -1178,9 +1166,6 @@
     <t>56,57%</t>
   </si>
   <si>
-    <t>48,37%</t>
-  </si>
-  <si>
     <t>35,15%</t>
   </si>
   <si>
@@ -1205,9 +1190,6 @@
     <t>70,12%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
     <t>37,83%</t>
   </si>
   <si>
@@ -1277,9 +1259,6 @@
     <t>65,32%</t>
   </si>
   <si>
-    <t>30,07%</t>
-  </si>
-  <si>
     <t>19,91%</t>
   </si>
   <si>
@@ -1299,9 +1278,6 @@
   </si>
   <si>
     <t>40,97%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
   </si>
   <si>
     <t>80,09%</t>
@@ -1782,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEC1325-4C56-4470-8FD6-1C4386D20ED1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E28747E-ABC1-4F63-AA72-5208EBF97699}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2711,13 +2687,13 @@
         <v>216883</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2708,13 @@
         <v>119979</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -2747,13 +2723,13 @@
         <v>81585</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>197</v>
@@ -2762,13 +2738,13 @@
         <v>201564</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,7 +2800,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +2821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF218752-5BB4-4AD7-9322-C50A984BF809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0D71D-E241-4ABF-B0E8-C1904C6AE484}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2862,7 +2838,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2969,13 +2945,13 @@
         <v>5090</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2984,13 +2960,13 @@
         <v>4731</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2999,13 +2975,13 @@
         <v>9821</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +2996,13 @@
         <v>10809</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3035,13 +3011,13 @@
         <v>1172</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3050,13 +3026,13 @@
         <v>11981</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3100,13 @@
         <v>9054</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3139,13 +3115,13 @@
         <v>19947</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3154,13 +3130,13 @@
         <v>29001</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3151,13 @@
         <v>34069</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -3190,13 +3166,13 @@
         <v>27670</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -3205,13 +3181,13 @@
         <v>61739</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3255,13 @@
         <v>29860</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3294,13 +3270,13 @@
         <v>28455</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -3309,13 +3285,13 @@
         <v>58316</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3306,13 @@
         <v>51429</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -3345,13 +3321,13 @@
         <v>46168</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>89</v>
@@ -3360,13 +3336,13 @@
         <v>97597</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3410,13 @@
         <v>19714</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3449,13 +3425,13 @@
         <v>21238</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3464,13 +3440,13 @@
         <v>40952</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3461,13 @@
         <v>38694</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -3500,13 +3476,13 @@
         <v>35807</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -3515,13 +3491,13 @@
         <v>74501</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3565,13 @@
         <v>34596</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3604,13 +3580,13 @@
         <v>23960</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -3619,13 +3595,13 @@
         <v>58557</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3616,13 @@
         <v>54597</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3655,13 +3631,13 @@
         <v>48324</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -3670,13 +3646,13 @@
         <v>102921</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3720,13 @@
         <v>98315</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -3759,13 +3735,13 @@
         <v>98331</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>184</v>
@@ -3774,13 +3750,13 @@
         <v>196646</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3771,13 @@
         <v>189598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>151</v>
@@ -3810,13 +3786,13 @@
         <v>159141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>333</v>
@@ -3825,13 +3801,13 @@
         <v>348739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3863,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +3884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E3FFC8-3520-4848-A149-ABC828D9E2C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9128C7-F026-4DBE-A1D0-6F202248D57B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3925,7 +3901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4032,13 +4008,13 @@
         <v>2664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4047,13 +4023,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4062,13 +4038,13 @@
         <v>2664</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4059,13 @@
         <v>2857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4098,10 +4074,10 @@
         <v>6269</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4113,13 +4089,13 @@
         <v>9126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4163,13 @@
         <v>13566</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -4202,13 +4178,13 @@
         <v>18852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4217,13 +4193,13 @@
         <v>32418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4214,13 @@
         <v>22520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -4253,13 +4229,13 @@
         <v>23555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -4268,13 +4244,13 @@
         <v>46075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4318,13 @@
         <v>32929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -4357,13 +4333,13 @@
         <v>23970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -4372,13 +4348,13 @@
         <v>56899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4369,13 @@
         <v>27546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4408,13 +4384,13 @@
         <v>24629</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -4423,13 +4399,13 @@
         <v>52175</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4473,13 @@
         <v>12265</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4512,13 +4488,13 @@
         <v>10550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4527,13 +4503,13 @@
         <v>22815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4524,13 @@
         <v>24401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4563,13 +4539,13 @@
         <v>21011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -4578,13 +4554,13 @@
         <v>45412</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4628,13 @@
         <v>27687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4667,13 +4643,13 @@
         <v>34138</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -4682,13 +4658,13 @@
         <v>61825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4679,13 @@
         <v>33199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4718,13 +4694,13 @@
         <v>28480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -4733,13 +4709,13 @@
         <v>61679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4783,13 @@
         <v>89111</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -4822,13 +4798,13 @@
         <v>87509</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>327</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -4837,13 +4813,13 @@
         <v>176621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4834,13 @@
         <v>110523</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -4873,13 +4849,13 @@
         <v>103944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -4888,13 +4864,13 @@
         <v>214466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,7 +4926,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4971,7 +4947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F80C0B3-E06B-420D-B326-25E47CBA0503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E7CA71-C018-4310-8086-25C518BDF12B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4988,7 +4964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5095,13 +5071,13 @@
         <v>3649</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5110,13 +5086,13 @@
         <v>2437</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5125,13 +5101,13 @@
         <v>6086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5122,13 @@
         <v>2367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5161,13 +5137,13 @@
         <v>5143</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5176,13 +5152,13 @@
         <v>7510</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5226,13 @@
         <v>13741</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5265,13 +5241,13 @@
         <v>18076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5280,13 +5256,13 @@
         <v>31817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5277,13 @@
         <v>26861</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -5316,13 +5292,13 @@
         <v>20376</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -5331,13 +5307,13 @@
         <v>47238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5381,13 @@
         <v>28620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5420,13 +5396,13 @@
         <v>30463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -5435,13 +5411,13 @@
         <v>59083</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5432,13 @@
         <v>39092</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -5471,13 +5447,13 @@
         <v>32517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -5486,13 +5462,13 @@
         <v>71609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5536,13 @@
         <v>12602</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5575,13 +5551,13 @@
         <v>22499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5590,13 +5566,13 @@
         <v>35101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5587,13 @@
         <v>17218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -5626,13 +5602,13 @@
         <v>25577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -5641,13 +5617,13 @@
         <v>42795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,10 +5691,10 @@
         <v>18286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -5730,13 +5706,13 @@
         <v>26470</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -5745,13 +5721,13 @@
         <v>44756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5742,13 @@
         <v>42526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -5781,13 +5757,13 @@
         <v>48718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -5796,13 +5772,13 @@
         <v>91244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5846,13 @@
         <v>76897</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -5885,13 +5861,13 @@
         <v>99945</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>237</v>
@@ -5900,13 +5876,13 @@
         <v>176842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5897,13 @@
         <v>128065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>201</v>
@@ -5936,13 +5912,13 @@
         <v>132332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>334</v>
@@ -5951,13 +5927,13 @@
         <v>260397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,7 +5989,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D82939A-2B47-4789-B3D1-DC8D9D675778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C68A164-3ECE-4504-98B7-B8C5AE56901A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB19120A-DB46-4670-ABB6-655872B4BE60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4116743-091A-49E3-AC80-4A35F9EBD226}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="436">
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="358">
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1216 +137,982 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
   </si>
   <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E28747E-ABC1-4F63-AA72-5208EBF97699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57BFF2F-5CCE-4287-B6AC-D70AF9C1B67D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1927,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>4403</v>
+        <v>111208</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1942,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="I5" s="7">
-        <v>4301</v>
+        <v>110083</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1957,10 +1723,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="N5" s="7">
-        <v>8704</v>
+        <v>221291</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1978,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>8553</v>
+        <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1759,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7">
-        <v>6973</v>
+        <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2008,10 +1774,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="N6" s="7">
-        <v>15526</v>
+        <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2082,10 +1848,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>558</v>
       </c>
       <c r="D8" s="7">
-        <v>30570</v>
+        <v>560022</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2097,10 +1863,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>555</v>
       </c>
       <c r="I8" s="7">
-        <v>15239</v>
+        <v>562401</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2112,10 +1878,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>1113</v>
       </c>
       <c r="N8" s="7">
-        <v>45809</v>
+        <v>1122423</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2133,10 +1899,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>578</v>
       </c>
       <c r="D9" s="7">
-        <v>49202</v>
+        <v>578654</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2148,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>28</v>
+        <v>568</v>
       </c>
       <c r="I9" s="7">
-        <v>28434</v>
+        <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2163,10 +1929,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>79</v>
+        <v>1146</v>
       </c>
       <c r="N9" s="7">
-        <v>77636</v>
+        <v>1154250</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2195,10 +1961,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -2207,13 +1973,13 @@
         <v>30135</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -2222,13 +1988,13 @@
         <v>72915</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,49 +2003,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>857</v>
       </c>
       <c r="D11" s="7">
-        <v>41464</v>
+        <v>919020</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="7">
+        <v>880</v>
+      </c>
+      <c r="I11" s="7">
+        <v>938258</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>28570</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1737</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1857278</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>65</v>
-      </c>
-      <c r="N11" s="7">
-        <v>70034</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,10 +2054,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>896</v>
       </c>
       <c r="D12" s="7">
-        <v>84244</v>
+        <v>961800</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>54</v>
+        <v>908</v>
       </c>
       <c r="I12" s="7">
-        <v>58705</v>
+        <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2318,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>132</v>
+        <v>1804</v>
       </c>
       <c r="N12" s="7">
-        <v>142949</v>
+        <v>1930193</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2335,7 +2101,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2344,16 +2110,16 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>23805</v>
+        <v>23806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -2362,13 +2128,13 @@
         <v>24114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -2377,13 +2143,13 @@
         <v>47920</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,49 +2158,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>618</v>
       </c>
       <c r="D14" s="7">
-        <v>21920</v>
+        <v>654703</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
+        <v>672</v>
+      </c>
+      <c r="I14" s="7">
+        <v>659727</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1290</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1314430</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10817</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="7">
-        <v>32</v>
-      </c>
-      <c r="N14" s="7">
-        <v>32736</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,10 +2209,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>44</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>45725</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2458,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>34931</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2473,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>79</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>80656</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2490,7 +2256,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2502,13 +2268,13 @@
         <v>33710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -2517,13 +2283,13 @@
         <v>23689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -2532,13 +2298,13 @@
         <v>57399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,49 +2313,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>960</v>
       </c>
       <c r="D17" s="7">
-        <v>21623</v>
+        <v>908512</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7">
+        <v>975</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1014923</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1935</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1923435</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>22</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22658</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>45</v>
-      </c>
-      <c r="N17" s="7">
-        <v>44281</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>994</v>
       </c>
       <c r="D18" s="7">
-        <v>55333</v>
+        <v>942222</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2613,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>46347</v>
+        <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2628,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>101</v>
+        <v>1991</v>
       </c>
       <c r="N18" s="7">
-        <v>101680</v>
+        <v>1980834</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2657,13 +2423,13 @@
         <v>123077</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -2672,13 +2438,13 @@
         <v>93806</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -2687,13 +2453,13 @@
         <v>216883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,49 +2468,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>3095</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3153467</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3207</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3285392</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="7">
+        <v>6302</v>
+      </c>
+      <c r="N20" s="7">
+        <v>6438857</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="7">
-        <v>119979</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>79</v>
-      </c>
-      <c r="I20" s="7">
-        <v>81585</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>197</v>
-      </c>
-      <c r="N20" s="7">
-        <v>201564</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,10 +2519,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>237</v>
+        <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>243056</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2768,10 +2534,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>169</v>
+        <v>3297</v>
       </c>
       <c r="I21" s="7">
-        <v>175391</v>
+        <v>3379198</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2783,10 +2549,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>406</v>
+        <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>418447</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2800,7 +2566,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0D71D-E241-4ABF-B0E8-C1904C6AE484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB546297-8461-4343-AFAD-8FE62369BB9F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2838,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2945,13 +2711,13 @@
         <v>5090</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2960,13 +2726,13 @@
         <v>4731</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2975,13 +2741,13 @@
         <v>9821</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,49 +2756,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>10809</v>
+        <v>110675</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="7">
+        <v>95</v>
+      </c>
+      <c r="I5" s="7">
+        <v>107174</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1172</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>211</v>
+      </c>
+      <c r="N5" s="7">
+        <v>217849</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>11981</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,10 +2807,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>15899</v>
+        <v>115765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2822,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="I6" s="7">
-        <v>5903</v>
+        <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3071,10 +2837,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="N6" s="7">
-        <v>21802</v>
+        <v>227670</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3097,31 +2863,31 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>9054</v>
+        <v>9055</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>19947</v>
+        <v>19946</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3130,13 +2896,13 @@
         <v>29001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,49 +2911,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>543</v>
       </c>
       <c r="D8" s="7">
-        <v>34069</v>
+        <v>578649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>533</v>
       </c>
       <c r="I8" s="7">
-        <v>27670</v>
+        <v>565199</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>1076</v>
       </c>
       <c r="N8" s="7">
-        <v>61739</v>
+        <v>1143848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,10 +2962,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>43</v>
+        <v>552</v>
       </c>
       <c r="D9" s="7">
-        <v>43123</v>
+        <v>587704</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3211,10 +2977,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>551</v>
       </c>
       <c r="I9" s="7">
-        <v>47617</v>
+        <v>585145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3226,10 +2992,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>88</v>
+        <v>1103</v>
       </c>
       <c r="N9" s="7">
-        <v>90740</v>
+        <v>1172849</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3255,13 +3021,13 @@
         <v>29860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3270,13 +3036,13 @@
         <v>28455</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -3285,13 +3051,13 @@
         <v>58316</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,49 +3066,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>46</v>
+        <v>909</v>
       </c>
       <c r="D11" s="7">
-        <v>51429</v>
+        <v>988087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>913</v>
       </c>
       <c r="I11" s="7">
-        <v>46168</v>
+        <v>1003729</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
-        <v>89</v>
+        <v>1822</v>
       </c>
       <c r="N11" s="7">
-        <v>97597</v>
+        <v>1991815</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>73</v>
+        <v>936</v>
       </c>
       <c r="D12" s="7">
-        <v>81289</v>
+        <v>1017947</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3366,10 +3132,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>70</v>
+        <v>940</v>
       </c>
       <c r="I12" s="7">
-        <v>74623</v>
+        <v>1032184</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3381,10 +3147,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>143</v>
+        <v>1876</v>
       </c>
       <c r="N12" s="7">
-        <v>155913</v>
+        <v>2050131</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3398,7 +3164,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3410,13 +3176,13 @@
         <v>19714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3425,13 +3191,13 @@
         <v>21238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3440,13 +3206,13 @@
         <v>40952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,49 +3221,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>670</v>
       </c>
       <c r="D14" s="7">
-        <v>38694</v>
+        <v>737909</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>686</v>
       </c>
       <c r="I14" s="7">
-        <v>35807</v>
+        <v>755936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
-        <v>72</v>
+        <v>1356</v>
       </c>
       <c r="N14" s="7">
-        <v>74501</v>
+        <v>1493845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,10 +3272,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>57</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>58408</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3521,10 +3287,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>57045</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3536,10 +3302,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>110</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>115453</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3553,7 +3319,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3565,43 +3331,43 @@
         <v>34596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>23960</v>
+        <v>23961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
       </c>
       <c r="N16" s="7">
-        <v>58557</v>
+        <v>58556</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,49 +3376,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>53</v>
+        <v>877</v>
       </c>
       <c r="D17" s="7">
-        <v>54597</v>
+        <v>913143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>981</v>
       </c>
       <c r="I17" s="7">
-        <v>48324</v>
+        <v>1027940</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>1858</v>
       </c>
       <c r="N17" s="7">
-        <v>102921</v>
+        <v>1941084</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,10 +3427,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>86</v>
+        <v>910</v>
       </c>
       <c r="D18" s="7">
-        <v>89193</v>
+        <v>947739</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3676,10 +3442,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>68</v>
+        <v>1003</v>
       </c>
       <c r="I18" s="7">
-        <v>72284</v>
+        <v>1051901</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3691,10 +3457,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>154</v>
+        <v>1913</v>
       </c>
       <c r="N18" s="7">
-        <v>161478</v>
+        <v>1999640</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3720,13 +3486,13 @@
         <v>98315</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -3735,13 +3501,13 @@
         <v>98331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="M19" s="7">
         <v>184</v>
@@ -3750,13 +3516,13 @@
         <v>196646</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>182</v>
+        <v>3115</v>
       </c>
       <c r="D20" s="7">
-        <v>189598</v>
+        <v>3328464</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H20" s="7">
-        <v>151</v>
+        <v>3208</v>
       </c>
       <c r="I20" s="7">
-        <v>159141</v>
+        <v>3459978</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M20" s="7">
-        <v>333</v>
+        <v>6323</v>
       </c>
       <c r="N20" s="7">
-        <v>348739</v>
+        <v>6788442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>276</v>
+        <v>3209</v>
       </c>
       <c r="D21" s="7">
-        <v>287913</v>
+        <v>3426779</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3831,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>241</v>
+        <v>3298</v>
       </c>
       <c r="I21" s="7">
-        <v>257472</v>
+        <v>3558309</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3846,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>517</v>
+        <v>6507</v>
       </c>
       <c r="N21" s="7">
-        <v>545385</v>
+        <v>6985088</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3863,7 +3629,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3884,7 +3650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9128C7-F026-4DBE-A1D0-6F202248D57B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903FE99-0943-496D-AAC4-BAF8CF2B0BB9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3901,7 +3667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4008,13 +3774,13 @@
         <v>2664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4023,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4038,13 +3804,13 @@
         <v>2664</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,49 +3819,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7">
-        <v>2857</v>
+        <v>113882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="I5" s="7">
-        <v>6269</v>
+        <v>113360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="N5" s="7">
-        <v>9126</v>
+        <v>227242</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,10 +3870,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="D6" s="7">
-        <v>5521</v>
+        <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4119,10 +3885,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="I6" s="7">
-        <v>6269</v>
+        <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4134,10 +3900,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="N6" s="7">
-        <v>11790</v>
+        <v>229906</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4163,13 +3929,13 @@
         <v>13566</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -4178,13 +3944,13 @@
         <v>18852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4193,13 +3959,13 @@
         <v>32418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,49 +3974,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>525</v>
       </c>
       <c r="D8" s="7">
-        <v>22520</v>
+        <v>544688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>533</v>
       </c>
       <c r="I8" s="7">
-        <v>23555</v>
+        <v>540627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>1058</v>
       </c>
       <c r="N8" s="7">
-        <v>46075</v>
+        <v>1085315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>539</v>
       </c>
       <c r="D9" s="7">
-        <v>36086</v>
+        <v>558254</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4274,10 +4040,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>41</v>
+        <v>551</v>
       </c>
       <c r="I9" s="7">
-        <v>42407</v>
+        <v>559479</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4289,10 +4055,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>1090</v>
       </c>
       <c r="N9" s="7">
-        <v>78493</v>
+        <v>1117733</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4315,16 +4081,16 @@
         <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>32929</v>
+        <v>32928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -4333,13 +4099,13 @@
         <v>23970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -4348,13 +4114,13 @@
         <v>56899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,49 +4129,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>920</v>
       </c>
       <c r="D11" s="7">
-        <v>27546</v>
+        <v>989503</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>957</v>
       </c>
       <c r="I11" s="7">
-        <v>24629</v>
+        <v>1018943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>50</v>
+        <v>1877</v>
       </c>
       <c r="N11" s="7">
-        <v>52175</v>
+        <v>2008445</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,10 +4180,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>951</v>
       </c>
       <c r="D12" s="7">
-        <v>60475</v>
+        <v>1022431</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4429,10 +4195,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>977</v>
       </c>
       <c r="I12" s="7">
-        <v>48599</v>
+        <v>1042913</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4444,10 +4210,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>101</v>
+        <v>1928</v>
       </c>
       <c r="N12" s="7">
-        <v>109074</v>
+        <v>2065344</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4461,7 +4227,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4473,13 +4239,13 @@
         <v>12265</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4488,13 +4254,13 @@
         <v>10550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4503,13 +4269,13 @@
         <v>22815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,49 +4284,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>684</v>
       </c>
       <c r="D14" s="7">
-        <v>24401</v>
+        <v>747287</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>726</v>
       </c>
       <c r="I14" s="7">
-        <v>21011</v>
+        <v>774461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>40</v>
+        <v>1410</v>
       </c>
       <c r="N14" s="7">
-        <v>45412</v>
+        <v>1521748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,10 +4335,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>34</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>36666</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4584,10 +4350,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>31561</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4599,10 +4365,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>68227</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4616,7 +4382,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4628,13 +4394,13 @@
         <v>27687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4643,13 +4409,13 @@
         <v>34138</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -4658,13 +4424,13 @@
         <v>61825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,49 +4439,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>905</v>
       </c>
       <c r="D17" s="7">
-        <v>33199</v>
+        <v>909880</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>930</v>
       </c>
       <c r="I17" s="7">
-        <v>28480</v>
+        <v>1009641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
-        <v>57</v>
+        <v>1835</v>
       </c>
       <c r="N17" s="7">
-        <v>61679</v>
+        <v>1919521</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,10 +4490,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>59</v>
+        <v>932</v>
       </c>
       <c r="D18" s="7">
-        <v>60886</v>
+        <v>937567</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4739,10 +4505,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>959</v>
       </c>
       <c r="I18" s="7">
-        <v>62618</v>
+        <v>1043779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4754,10 +4520,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>113</v>
+        <v>1891</v>
       </c>
       <c r="N18" s="7">
-        <v>123504</v>
+        <v>1981346</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4783,28 +4549,28 @@
         <v>89111</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
       </c>
       <c r="I19" s="7">
-        <v>87509</v>
+        <v>87510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>53</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -4813,13 +4579,13 @@
         <v>176621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,49 +4594,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>106</v>
+        <v>3144</v>
       </c>
       <c r="D20" s="7">
-        <v>110523</v>
+        <v>3305239</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
-        <v>95</v>
+        <v>3261</v>
       </c>
       <c r="I20" s="7">
-        <v>103944</v>
+        <v>3457032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>60</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
-        <v>201</v>
+        <v>6405</v>
       </c>
       <c r="N20" s="7">
-        <v>214466</v>
+        <v>6762271</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,10 +4645,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>193</v>
+        <v>3231</v>
       </c>
       <c r="D21" s="7">
-        <v>199634</v>
+        <v>3394350</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4894,10 +4660,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>172</v>
+        <v>3338</v>
       </c>
       <c r="I21" s="7">
-        <v>191453</v>
+        <v>3544542</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4909,10 +4675,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>365</v>
+        <v>6569</v>
       </c>
       <c r="N21" s="7">
-        <v>391087</v>
+        <v>6938892</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4926,7 +4692,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4947,7 +4713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E7CA71-C018-4310-8086-25C518BDF12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3FE3BD-2514-4642-A931-664A92BDAC22}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4964,7 +4730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5071,13 +4837,13 @@
         <v>3649</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5086,13 +4852,13 @@
         <v>2437</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5101,13 +4867,13 @@
         <v>6086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,49 +4882,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>2367</v>
+        <v>98333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="I5" s="7">
-        <v>5143</v>
+        <v>128296</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" s="7">
         <v>349</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M5" s="7">
-        <v>14</v>
-      </c>
       <c r="N5" s="7">
-        <v>7510</v>
+        <v>226629</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,10 +4933,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7">
-        <v>6016</v>
+        <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5182,10 +4948,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="I6" s="7">
-        <v>7580</v>
+        <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5197,10 +4963,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>26</v>
+        <v>361</v>
       </c>
       <c r="N6" s="7">
-        <v>13596</v>
+        <v>232715</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5226,13 +4992,13 @@
         <v>13741</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>354</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5241,13 +5007,13 @@
         <v>18076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5256,13 +5022,13 @@
         <v>31817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>360</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,49 +5037,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>598</v>
       </c>
       <c r="D8" s="7">
-        <v>26861</v>
+        <v>536082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>363</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>959</v>
       </c>
       <c r="I8" s="7">
-        <v>20376</v>
+        <v>574886</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
-        <v>70</v>
+        <v>1557</v>
       </c>
       <c r="N8" s="7">
-        <v>47238</v>
+        <v>1110968</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>369</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,10 +5088,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>46</v>
+        <v>612</v>
       </c>
       <c r="D9" s="7">
-        <v>40602</v>
+        <v>549823</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5337,10 +5103,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>75</v>
+        <v>996</v>
       </c>
       <c r="I9" s="7">
-        <v>38452</v>
+        <v>592962</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5352,10 +5118,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>121</v>
+        <v>1608</v>
       </c>
       <c r="N9" s="7">
-        <v>79055</v>
+        <v>1142785</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5381,13 +5147,13 @@
         <v>28620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5396,13 +5162,13 @@
         <v>30463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -5411,13 +5177,13 @@
         <v>59083</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,49 +5192,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>39092</v>
+        <v>1010628</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>1476</v>
       </c>
       <c r="I11" s="7">
-        <v>32517</v>
+        <v>1029011</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>85</v>
+        <v>2412</v>
       </c>
       <c r="N11" s="7">
-        <v>71609</v>
+        <v>2039639</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>65</v>
+        <v>964</v>
       </c>
       <c r="D12" s="7">
-        <v>67712</v>
+        <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5492,10 +5258,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>88</v>
+        <v>1516</v>
       </c>
       <c r="I12" s="7">
-        <v>62980</v>
+        <v>1059474</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5507,10 +5273,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>2480</v>
       </c>
       <c r="N12" s="7">
-        <v>130692</v>
+        <v>2098722</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5524,7 +5290,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5536,13 +5302,13 @@
         <v>12602</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5551,13 +5317,13 @@
         <v>22499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5566,13 +5332,13 @@
         <v>35101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,49 +5347,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>663</v>
       </c>
       <c r="D14" s="7">
-        <v>17218</v>
+        <v>716170</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>1013</v>
       </c>
       <c r="I14" s="7">
-        <v>25577</v>
+        <v>851872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>1676</v>
       </c>
       <c r="N14" s="7">
-        <v>42795</v>
+        <v>1568041</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,10 +5398,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>29820</v>
+        <v>728772</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5647,10 +5413,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>69</v>
+        <v>1047</v>
       </c>
       <c r="I15" s="7">
-        <v>48076</v>
+        <v>874371</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5662,10 +5428,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>99</v>
+        <v>1723</v>
       </c>
       <c r="N15" s="7">
-        <v>77896</v>
+        <v>1603142</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5679,7 +5445,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5691,13 +5457,13 @@
         <v>18286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -5706,13 +5472,13 @@
         <v>26470</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -5721,13 +5487,13 @@
         <v>44756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,49 +5502,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>987</v>
       </c>
       <c r="D17" s="7">
-        <v>42526</v>
+        <v>947117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
-        <v>70</v>
+        <v>1522</v>
       </c>
       <c r="I17" s="7">
-        <v>48718</v>
+        <v>1123962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
-        <v>113</v>
+        <v>2509</v>
       </c>
       <c r="N17" s="7">
-        <v>91244</v>
+        <v>2071079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,10 +5553,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>62</v>
+        <v>1006</v>
       </c>
       <c r="D18" s="7">
-        <v>60812</v>
+        <v>965403</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5802,10 +5568,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>110</v>
+        <v>1562</v>
       </c>
       <c r="I18" s="7">
-        <v>75188</v>
+        <v>1150432</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5817,10 +5583,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>172</v>
+        <v>2568</v>
       </c>
       <c r="N18" s="7">
-        <v>136000</v>
+        <v>2115835</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5846,13 +5612,13 @@
         <v>76897</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>421</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -5861,13 +5627,13 @@
         <v>99945</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>237</v>
@@ -5876,13 +5642,13 @@
         <v>176842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,49 +5657,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>133</v>
+        <v>3297</v>
       </c>
       <c r="D20" s="7">
-        <v>128065</v>
+        <v>3308331</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
-        <v>201</v>
+        <v>5206</v>
       </c>
       <c r="I20" s="7">
-        <v>132332</v>
+        <v>3708027</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
-        <v>334</v>
+        <v>8503</v>
       </c>
       <c r="N20" s="7">
-        <v>260397</v>
+        <v>7016358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,10 +5708,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>212</v>
+        <v>3376</v>
       </c>
       <c r="D21" s="7">
-        <v>204962</v>
+        <v>3385228</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5957,10 +5723,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>5364</v>
       </c>
       <c r="I21" s="7">
-        <v>232277</v>
+        <v>3807972</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5972,10 +5738,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>571</v>
+        <v>8740</v>
       </c>
       <c r="N21" s="7">
-        <v>437239</v>
+        <v>7193200</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5989,7 +5755,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C68A164-3ECE-4504-98B7-B8C5AE56901A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1A08A2D-6EAA-4056-BEBA-17097D35329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4116743-091A-49E3-AC80-4A35F9EBD226}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E8F16FC7-6CF1-4F56-9444-1391C01D1288}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="310">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1051 +68,907 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
 </sst>
 </file>
@@ -1524,8 +1380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57BFF2F-5CCE-4287-B6AC-D70AF9C1B67D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E51DED-A59D-467C-89FE-C9D20752679A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1642,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>4150</v>
+        <v>22782</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1657,10 +1513,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>2672</v>
+        <v>15867</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1672,10 +1528,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>6822</v>
+        <v>38649</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1693,10 +1549,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>660</v>
       </c>
       <c r="D5" s="7">
-        <v>111208</v>
+        <v>671230</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1708,10 +1564,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>125</v>
+        <v>680</v>
       </c>
       <c r="I5" s="7">
-        <v>110083</v>
+        <v>672484</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1723,10 +1579,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>227</v>
+        <v>1340</v>
       </c>
       <c r="N5" s="7">
-        <v>221291</v>
+        <v>1343714</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1744,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1759,10 +1615,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1774,10 +1630,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1797,10 +1653,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>18632</v>
+        <v>42780</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1812,10 +1668,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>13195</v>
+        <v>30135</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1827,10 +1683,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N7" s="7">
-        <v>31827</v>
+        <v>72915</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1848,10 +1704,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>558</v>
+        <v>857</v>
       </c>
       <c r="D8" s="7">
-        <v>560022</v>
+        <v>919020</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1863,10 +1719,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>555</v>
+        <v>880</v>
       </c>
       <c r="I8" s="7">
-        <v>562401</v>
+        <v>938258</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1878,10 +1734,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1113</v>
+        <v>1737</v>
       </c>
       <c r="N8" s="7">
-        <v>1122423</v>
+        <v>1857278</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1899,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1914,10 +1770,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1929,10 +1785,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1952,49 +1808,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>42780</v>
+        <v>23806</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>30135</v>
+        <v>24114</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>72915</v>
+        <v>47920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,49 +1859,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>857</v>
+        <v>618</v>
       </c>
       <c r="D11" s="7">
-        <v>919020</v>
+        <v>654703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>880</v>
+        <v>672</v>
       </c>
       <c r="I11" s="7">
-        <v>938258</v>
+        <v>659727</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1737</v>
+        <v>1290</v>
       </c>
       <c r="N11" s="7">
-        <v>1857278</v>
+        <v>1314430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2069,10 +1925,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2084,10 +1940,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2101,55 +1957,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>23806</v>
+        <v>33710</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>24114</v>
+        <v>23689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>47920</v>
+        <v>57399</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,49 +2014,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>618</v>
+        <v>960</v>
       </c>
       <c r="D14" s="7">
-        <v>654703</v>
+        <v>908512</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>672</v>
+        <v>975</v>
       </c>
       <c r="I14" s="7">
-        <v>659727</v>
+        <v>1014923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1290</v>
+        <v>1935</v>
       </c>
       <c r="N14" s="7">
-        <v>1314430</v>
+        <v>1923435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,10 +2065,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2224,10 +2080,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2239,10 +2095,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2256,55 +2112,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7">
-        <v>33710</v>
+        <v>123077</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>23689</v>
+        <v>93806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="N16" s="7">
-        <v>57399</v>
+        <v>216883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,49 +2169,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>960</v>
+        <v>3095</v>
       </c>
       <c r="D17" s="7">
-        <v>908512</v>
+        <v>3153466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>975</v>
+        <v>3207</v>
       </c>
       <c r="I17" s="7">
-        <v>1014923</v>
+        <v>3285391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>1935</v>
+        <v>6302</v>
       </c>
       <c r="N17" s="7">
-        <v>1923435</v>
+        <v>6438858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,10 +2220,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2379,10 +2235,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2394,10 +2250,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2410,171 +2266,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>119</v>
-      </c>
-      <c r="D19" s="7">
-        <v>123077</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>90</v>
-      </c>
-      <c r="I19" s="7">
-        <v>93806</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>209</v>
-      </c>
-      <c r="N19" s="7">
-        <v>216883</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3095</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3153467</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3207</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3285392</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6302</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6438857</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2587,8 +2287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB546297-8461-4343-AFAD-8FE62369BB9F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26399DC-490B-400E-AC3E-3063D4AA3C83}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2604,7 +2304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2705,49 +2405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>5090</v>
+        <v>14144</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>4731</v>
+        <v>24677</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>9821</v>
+        <v>38822</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,49 +2456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>659</v>
+      </c>
+      <c r="D5" s="7">
+        <v>689325</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="7">
-        <v>110675</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>95</v>
+        <v>628</v>
       </c>
       <c r="I5" s="7">
-        <v>107174</v>
+        <v>672373</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>211</v>
+        <v>1287</v>
       </c>
       <c r="N5" s="7">
-        <v>217849</v>
+        <v>1361697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,10 +2507,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2822,10 +2522,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2837,10 +2537,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2860,49 +2560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>9055</v>
+        <v>29860</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>19946</v>
+        <v>28455</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>29001</v>
+        <v>58316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,49 +2611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>543</v>
+        <v>909</v>
       </c>
       <c r="D8" s="7">
-        <v>578649</v>
+        <v>988087</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>533</v>
+        <v>913</v>
       </c>
       <c r="I8" s="7">
-        <v>565199</v>
+        <v>1003729</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1076</v>
+        <v>1822</v>
       </c>
       <c r="N8" s="7">
-        <v>1143848</v>
+        <v>1991815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,10 +2662,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2977,10 +2677,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2992,10 +2692,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3015,49 +2715,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>29860</v>
+        <v>19714</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>28455</v>
+        <v>21238</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="7">
         <v>38</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M10" s="7">
-        <v>54</v>
-      </c>
       <c r="N10" s="7">
-        <v>58316</v>
+        <v>40952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,49 +2766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>909</v>
+        <v>670</v>
       </c>
       <c r="D11" s="7">
-        <v>988087</v>
+        <v>737909</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
+        <v>686</v>
+      </c>
+      <c r="I11" s="7">
+        <v>755936</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1356</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1493845</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="7">
-        <v>913</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1003729</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1822</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1991815</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,10 +2817,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3132,10 +2832,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3147,10 +2847,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3164,55 +2864,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>19714</v>
+        <v>34596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>21238</v>
+        <v>23961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>40952</v>
+        <v>58556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,49 +2921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>670</v>
+        <v>877</v>
       </c>
       <c r="D14" s="7">
-        <v>737909</v>
+        <v>913143</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>686</v>
+        <v>981</v>
       </c>
       <c r="I14" s="7">
-        <v>755936</v>
+        <v>1027940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>1356</v>
+        <v>1858</v>
       </c>
       <c r="N14" s="7">
-        <v>1493845</v>
+        <v>1941084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3287,10 +2987,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3302,10 +3002,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3319,55 +3019,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>34596</v>
+        <v>98315</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>23961</v>
+        <v>98331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="7">
         <v>184</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" s="7">
-        <v>55</v>
-      </c>
       <c r="N16" s="7">
-        <v>58556</v>
+        <v>196646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,49 +3076,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>877</v>
+        <v>3115</v>
       </c>
       <c r="D17" s="7">
-        <v>913143</v>
+        <v>3328464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>981</v>
+        <v>3208</v>
       </c>
       <c r="I17" s="7">
-        <v>1027940</v>
+        <v>3459978</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
-        <v>1858</v>
+        <v>6323</v>
       </c>
       <c r="N17" s="7">
-        <v>1941084</v>
+        <v>6788442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,10 +3127,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3442,10 +3142,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3457,10 +3157,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3473,171 +3173,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>94</v>
-      </c>
-      <c r="D19" s="7">
-        <v>98315</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="7">
-        <v>90</v>
-      </c>
-      <c r="I19" s="7">
-        <v>98331</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M19" s="7">
-        <v>184</v>
-      </c>
-      <c r="N19" s="7">
-        <v>196646</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3115</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3328464</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3208</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3459978</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6323</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6788442</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3650,8 +3194,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903FE99-0943-496D-AAC4-BAF8CF2B0BB9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1278436F-D056-49AD-9BA3-ACEC1EC4DD44}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3667,7 +3211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3768,49 +3312,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>2664</v>
+        <v>16230</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="7">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18852</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="7">
         <v>35</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M4" s="7">
-        <v>3</v>
-      </c>
       <c r="N4" s="7">
-        <v>2664</v>
+        <v>35082</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,49 +3363,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>110</v>
+        <v>635</v>
       </c>
       <c r="D5" s="7">
-        <v>113882</v>
+        <v>658570</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>648</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>653987</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>1283</v>
       </c>
       <c r="N5" s="7">
-        <v>227242</v>
+        <v>1312557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,10 +3414,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3885,10 +3429,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3900,10 +3444,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3923,49 +3467,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>13566</v>
+        <v>32928</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>18852</v>
+        <v>23970</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>32418</v>
+        <v>56899</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,49 +3518,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>525</v>
+        <v>920</v>
       </c>
       <c r="D8" s="7">
-        <v>544688</v>
+        <v>989503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
-        <v>533</v>
+        <v>957</v>
       </c>
       <c r="I8" s="7">
-        <v>540627</v>
+        <v>1018943</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
-        <v>1058</v>
+        <v>1877</v>
       </c>
       <c r="N8" s="7">
-        <v>1085315</v>
+        <v>2008445</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4040,10 +3584,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4055,10 +3599,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4078,49 +3622,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>32928</v>
+        <v>12265</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>23970</v>
+        <v>10550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>56899</v>
+        <v>22815</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,49 +3673,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>920</v>
+        <v>684</v>
       </c>
       <c r="D11" s="7">
-        <v>989503</v>
+        <v>747287</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
-        <v>957</v>
+        <v>726</v>
       </c>
       <c r="I11" s="7">
-        <v>1018943</v>
+        <v>774461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
-        <v>1877</v>
+        <v>1410</v>
       </c>
       <c r="N11" s="7">
-        <v>2008445</v>
+        <v>1521748</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4195,10 +3739,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4210,10 +3754,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4227,55 +3771,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>12265</v>
+        <v>27687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>10550</v>
+        <v>34138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>22815</v>
+        <v>61825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,49 +3828,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>684</v>
+        <v>905</v>
       </c>
       <c r="D14" s="7">
-        <v>747287</v>
+        <v>909880</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
-        <v>726</v>
+        <v>930</v>
       </c>
       <c r="I14" s="7">
-        <v>774461</v>
+        <v>1009641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
-        <v>1410</v>
+        <v>1835</v>
       </c>
       <c r="N14" s="7">
-        <v>1521748</v>
+        <v>1919521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,10 +3879,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4350,10 +3894,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4365,10 +3909,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4382,55 +3926,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7">
-        <v>27687</v>
+        <v>89111</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>34138</v>
+        <v>87510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="N16" s="7">
-        <v>61825</v>
+        <v>176621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,49 +3983,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>905</v>
+        <v>3144</v>
       </c>
       <c r="D17" s="7">
-        <v>909880</v>
+        <v>3305239</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
-        <v>930</v>
+        <v>3261</v>
       </c>
       <c r="I17" s="7">
-        <v>1009641</v>
+        <v>3457032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
-        <v>1835</v>
+        <v>6405</v>
       </c>
       <c r="N17" s="7">
-        <v>1919521</v>
+        <v>6762271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,10 +4034,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4505,10 +4049,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4520,10 +4064,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4536,171 +4080,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>87</v>
-      </c>
-      <c r="D19" s="7">
-        <v>89111</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" s="7">
-        <v>77</v>
-      </c>
-      <c r="I19" s="7">
-        <v>87510</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="7">
-        <v>164</v>
-      </c>
-      <c r="N19" s="7">
-        <v>176621</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3144</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3305239</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3261</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3457032</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6405</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6762271</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4713,8 +4101,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3FE3BD-2514-4642-A931-664A92BDAC22}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E575F5B-C232-4D63-BC5B-E9CE0E10F77A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4730,7 +4118,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4831,49 +4219,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>3649</v>
+        <v>16586</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>2437</v>
+        <v>19143</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>6086</v>
+        <v>35729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,49 +4270,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>711</v>
       </c>
       <c r="D5" s="7">
-        <v>98333</v>
+        <v>618855</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7">
-        <v>236</v>
+        <v>1195</v>
       </c>
       <c r="I5" s="7">
-        <v>128296</v>
+        <v>656609</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
-        <v>349</v>
+        <v>1906</v>
       </c>
       <c r="N5" s="7">
-        <v>226629</v>
+        <v>1275465</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,10 +4321,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4948,10 +4336,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4963,10 +4351,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4986,49 +4374,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>13741</v>
+        <v>26822</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="H7" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>18076</v>
+        <v>27542</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="M7" s="7">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>31817</v>
+        <v>54364</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>305</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,49 +4425,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>598</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>536082</v>
+        <v>1166042</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="H8" s="7">
-        <v>959</v>
+        <v>1476</v>
       </c>
       <c r="I8" s="7">
-        <v>574886</v>
+        <v>930564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>307</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="M8" s="7">
-        <v>1557</v>
+        <v>2412</v>
       </c>
       <c r="N8" s="7">
-        <v>1110968</v>
+        <v>2096607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>310</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,10 +4476,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5103,10 +4491,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5118,10 +4506,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5141,49 +4529,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>28620</v>
+        <v>12016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>30463</v>
+        <v>20650</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>59083</v>
+        <v>32665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,49 +4580,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>936</v>
+        <v>663</v>
       </c>
       <c r="D11" s="7">
-        <v>1010628</v>
+        <v>692664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
-        <v>1476</v>
+        <v>1013</v>
       </c>
       <c r="I11" s="7">
-        <v>1029011</v>
+        <v>912716</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
-        <v>2412</v>
+        <v>1676</v>
       </c>
       <c r="N11" s="7">
-        <v>2039639</v>
+        <v>1605381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,10 +4631,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5258,10 +4646,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5273,10 +4661,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5290,55 +4678,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>12602</v>
+        <v>17506</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>22499</v>
+        <v>24151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N13" s="7">
-        <v>35101</v>
+        <v>41657</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,49 +4735,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>663</v>
+        <v>987</v>
       </c>
       <c r="D14" s="7">
-        <v>716170</v>
+        <v>909325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
-        <v>1013</v>
+        <v>1522</v>
       </c>
       <c r="I14" s="7">
-        <v>851872</v>
+        <v>1070781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
-        <v>1676</v>
+        <v>2509</v>
       </c>
       <c r="N14" s="7">
-        <v>1568041</v>
+        <v>1980106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,10 +4786,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5413,10 +4801,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5428,10 +4816,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5445,55 +4833,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>18286</v>
+        <v>72930</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="I16" s="7">
-        <v>26470</v>
+        <v>91486</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="N16" s="7">
-        <v>44756</v>
+        <v>164416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,49 +4890,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>987</v>
+        <v>3297</v>
       </c>
       <c r="D17" s="7">
-        <v>947117</v>
+        <v>3386887</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
-        <v>1522</v>
+        <v>5206</v>
       </c>
       <c r="I17" s="7">
-        <v>1123962</v>
+        <v>3570671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
-        <v>2509</v>
+        <v>8503</v>
       </c>
       <c r="N17" s="7">
-        <v>2071079</v>
+        <v>6957558</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,10 +4941,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5568,10 +4956,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5364</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3662157</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5583,10 +4971,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8740</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7121974</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5599,171 +4987,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>79</v>
-      </c>
-      <c r="D19" s="7">
-        <v>76897</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H19" s="7">
-        <v>158</v>
-      </c>
-      <c r="I19" s="7">
-        <v>99945</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="7">
-        <v>237</v>
-      </c>
-      <c r="N19" s="7">
-        <v>176842</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3297</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3308331</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5206</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3708027</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8503</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7016358</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5364</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3807972</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8740</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7193200</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
